--- a/Features.xlsx
+++ b/Features.xlsx
@@ -863,7 +863,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,8 +1292,8 @@
       <c r="E17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>7</v>
+      <c r="F17" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>51</v>
@@ -1317,8 +1317,8 @@
       <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>12</v>
+      <c r="F18" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>14</v>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
   <si>
     <t>Catégorie</t>
   </si>
@@ -348,6 +348,30 @@
   </si>
   <si>
     <t>Events fantastiques</t>
+  </si>
+  <si>
+    <t>Modification autorité religieuse</t>
+  </si>
+  <si>
+    <t>Certaines actions ont désormais des effets sur l'autorité religieuse</t>
+  </si>
+  <si>
+    <t>Forestier</t>
+  </si>
+  <si>
+    <t>Le forestier vous permet de gérer votre forêt</t>
+  </si>
+  <si>
+    <t>On peut éviter de nommer le forestier pour éviter les problèmes …</t>
+  </si>
+  <si>
+    <t>Spécialisation forêt</t>
+  </si>
+  <si>
+    <t>Les forêts se spécialisent en exploitation, chasse, …</t>
+  </si>
+  <si>
+    <t>On peut ajouter toujours plus de flavour events</t>
   </si>
 </sst>
 </file>
@@ -860,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,26 +1278,24 @@
         <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>48</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="15"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1281,22 +1303,22 @@
         <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>51</v>
+        <v>114</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="6"/>
@@ -1306,24 +1328,26 @@
         <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="15"/>
+      <c r="G18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1331,71 +1355,71 @@
         <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="H19" s="15"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>54</v>
+      <c r="A20" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>54</v>
+      <c r="A21" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="15"/>
       <c r="I21" s="6"/>
     </row>
@@ -1404,26 +1428,24 @@
         <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>48</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="15"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,26 +1453,24 @@
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="E23" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="15"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,25 +1478,25 @@
         <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -1485,53 +1505,53 @@
         <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,120 +1559,197 @@
         <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="D32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B38" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B42" s="23" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1664,14 +1761,14 @@
     <hyperlink ref="H11" r:id="rId4" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052712346"/>
     <hyperlink ref="G13" r:id="rId5" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052713286"/>
     <hyperlink ref="G14" r:id="rId6" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052727226"/>
-    <hyperlink ref="H16" r:id="rId7" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052708015"/>
-    <hyperlink ref="G17" r:id="rId8" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052657380"/>
-    <hyperlink ref="G18" r:id="rId9" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052648061"/>
-    <hyperlink ref="G21" r:id="rId10" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052705143"/>
-    <hyperlink ref="H22" r:id="rId11" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052704582"/>
-    <hyperlink ref="H25" r:id="rId12" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052647414"/>
-    <hyperlink ref="I25" r:id="rId13" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/page-6"/>
-    <hyperlink ref="G26" r:id="rId14" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052721481"/>
+    <hyperlink ref="H18" r:id="rId7" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052708015"/>
+    <hyperlink ref="G19" r:id="rId8" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052657380"/>
+    <hyperlink ref="G20" r:id="rId9" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052648061"/>
+    <hyperlink ref="G23" r:id="rId10" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052705143"/>
+    <hyperlink ref="H24" r:id="rId11" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052704582"/>
+    <hyperlink ref="H27" r:id="rId12" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052647414"/>
+    <hyperlink ref="I27" r:id="rId13" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/page-6"/>
+    <hyperlink ref="G28" r:id="rId14" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052721481"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>

--- a/Features.xlsx
+++ b/Features.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="119">
   <si>
     <t>Catégorie</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Paix de Dieu</t>
   </si>
   <si>
-    <t>Les 7 premières années sont en paix pour amorcer la spécialisation</t>
-  </si>
-  <si>
     <t>Monastère</t>
   </si>
   <si>
@@ -372,13 +369,25 @@
   </si>
   <si>
     <t>On peut ajouter toujours plus de flavour events</t>
+  </si>
+  <si>
+    <t>Un nombre aléatoire d'années sont en paix pour amorcer la spécialisation</t>
+  </si>
+  <si>
+    <t>Reliques</t>
+  </si>
+  <si>
+    <t>Des restes de saints à découvrir</t>
+  </si>
+  <si>
+    <t>Des reliques peuvent être cachés, il peut y avoir un Saint Graal, il pourrait y avoir des events lors d'une croisade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +474,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -535,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -601,6 +617,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -884,17 +903,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
@@ -913,13 +932,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -969,7 +988,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
@@ -984,16 +1003,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D4" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -1007,22 +1026,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="6"/>
@@ -1153,26 +1172,24 @@
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>33</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="14"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,22 +1197,26 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1203,26 +1224,22 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,24 +1247,26 @@
         <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1255,46 +1274,46 @@
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H15" s="15"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>44</v>
+      <c r="A16" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>112</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="15"/>
       <c r="I16" s="6"/>
     </row>
@@ -1303,10 +1322,10 @@
         <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>12</v>
@@ -1318,7 +1337,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="6"/>
@@ -1328,26 +1347,24 @@
         <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>48</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="15"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1355,10 +1372,10 @@
         <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>7</v>
@@ -1367,12 +1384,14 @@
         <v>7</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1380,22 +1399,22 @@
         <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="6"/>
@@ -1405,46 +1424,46 @@
         <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H21" s="15"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>54</v>
+      <c r="A22" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="15"/>
       <c r="I22" s="6"/>
     </row>
@@ -1453,22 +1472,22 @@
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="6"/>
@@ -1478,26 +1497,24 @@
         <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="H24" s="15"/>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,25 +1522,25 @@
         <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -1532,25 +1549,25 @@
         <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I26" s="6"/>
     </row>
@@ -1559,76 +1576,78 @@
         <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>100</v>
+        <v>68</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="6"/>
@@ -1638,50 +1657,58 @@
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="H30" s="15"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>20</v>
@@ -1693,64 +1720,81 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="14" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1758,17 +1802,17 @@
     <hyperlink ref="G2" r:id="rId1" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052642520"/>
     <hyperlink ref="H3" r:id="rId2" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052701863"/>
     <hyperlink ref="G7" r:id="rId3" location="entry1052641978" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/page-3 - entry1052641978"/>
-    <hyperlink ref="H11" r:id="rId4" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052712346"/>
-    <hyperlink ref="G13" r:id="rId5" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052713286"/>
-    <hyperlink ref="G14" r:id="rId6" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052727226"/>
-    <hyperlink ref="H18" r:id="rId7" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052708015"/>
-    <hyperlink ref="G19" r:id="rId8" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052657380"/>
-    <hyperlink ref="G20" r:id="rId9" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052648061"/>
-    <hyperlink ref="G23" r:id="rId10" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052705143"/>
-    <hyperlink ref="H24" r:id="rId11" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052704582"/>
-    <hyperlink ref="H27" r:id="rId12" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052647414"/>
-    <hyperlink ref="I27" r:id="rId13" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/page-6"/>
-    <hyperlink ref="G28" r:id="rId14" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052721481"/>
+    <hyperlink ref="H12" r:id="rId4" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052712346"/>
+    <hyperlink ref="G14" r:id="rId5" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052713286"/>
+    <hyperlink ref="G15" r:id="rId6" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052727226"/>
+    <hyperlink ref="H19" r:id="rId7" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052708015"/>
+    <hyperlink ref="G20" r:id="rId8" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052657380"/>
+    <hyperlink ref="G21" r:id="rId9" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052648061"/>
+    <hyperlink ref="G24" r:id="rId10" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052705143"/>
+    <hyperlink ref="H25" r:id="rId11" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052704582"/>
+    <hyperlink ref="H28" r:id="rId12" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052647414"/>
+    <hyperlink ref="I28" r:id="rId13" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/page-6"/>
+    <hyperlink ref="G29" r:id="rId14" display="http://forum.reseau-js.com/topic/87034-mod-les-trois-tours-l3t/?p=1052721481"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
